--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.02179202835843</v>
+        <v>93.00806990562837</v>
       </c>
       <c r="D2" t="n">
-        <v>1.806783713592617</v>
+        <v>1.743306932676002</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.94343747226446</v>
+        <v>91.81190535260492</v>
       </c>
       <c r="D3" t="n">
-        <v>2.017228418099635</v>
+        <v>1.769561488848307</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.40846129386895</v>
+        <v>90.93504999699344</v>
       </c>
       <c r="D4" t="n">
-        <v>2.051959253266072</v>
+        <v>1.841741852939976</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.69757981177393</v>
+        <v>89.60123319514176</v>
       </c>
       <c r="D5" t="n">
-        <v>1.973747528440363</v>
+        <v>1.932270991404417</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.7255941977533</v>
+        <v>88.4756958630465</v>
       </c>
       <c r="D6" t="n">
-        <v>1.724989966743013</v>
+        <v>1.914414059034051</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.36328009622127</v>
+        <v>87.48804070964511</v>
       </c>
       <c r="D7" t="n">
-        <v>1.958854724767374</v>
+        <v>2.036313940989166</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.31198591174046</v>
+        <v>86.66874384471504</v>
       </c>
       <c r="D8" t="n">
-        <v>1.969297801181525</v>
+        <v>1.846290419314073</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.35542329599575</v>
+        <v>85.43149052195348</v>
       </c>
       <c r="D9" t="n">
-        <v>1.774820670607583</v>
+        <v>1.941110085908611</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.30491411543885</v>
+        <v>84.22406618491679</v>
       </c>
       <c r="D10" t="n">
-        <v>2.129396674913113</v>
+        <v>1.494207764054383</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.39406699896406</v>
+        <v>83.11923179350688</v>
       </c>
       <c r="D11" t="n">
-        <v>1.939417038284902</v>
+        <v>1.984271124831066</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.46386617379554</v>
+        <v>82.2815628890074</v>
       </c>
       <c r="D12" t="n">
-        <v>1.724214247410779</v>
+        <v>1.87499957502493</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.16548510147544</v>
+        <v>81.00919093928637</v>
       </c>
       <c r="D13" t="n">
-        <v>1.806963049236423</v>
+        <v>1.836574336918188</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.29069675449469</v>
+        <v>79.75204814693029</v>
       </c>
       <c r="D14" t="n">
-        <v>1.889219927687832</v>
+        <v>1.832750156748668</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.74006262861676</v>
+        <v>78.95038703413468</v>
       </c>
       <c r="D15" t="n">
-        <v>2.206468036283772</v>
+        <v>1.894052152628322</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.73423592660443</v>
+        <v>77.30377375046938</v>
       </c>
       <c r="D16" t="n">
-        <v>2.121700046865745</v>
+        <v>1.909636066038985</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.4852618589931</v>
+        <v>76.86210476631217</v>
       </c>
       <c r="D17" t="n">
-        <v>1.972105614758632</v>
+        <v>1.888614650519027</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.06153734906907</v>
+        <v>75.73434296123915</v>
       </c>
       <c r="D18" t="n">
-        <v>1.894095063381891</v>
+        <v>1.879284264639304</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.41473565385716</v>
+        <v>74.49621279251839</v>
       </c>
       <c r="D19" t="n">
-        <v>1.888838987200445</v>
+        <v>1.666694666541854</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.36081911644983</v>
+        <v>73.62312464988103</v>
       </c>
       <c r="D20" t="n">
-        <v>1.993142207170585</v>
+        <v>1.806873604804756</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.63063246735869</v>
+        <v>72.68208875671175</v>
       </c>
       <c r="D21" t="n">
-        <v>1.937422663358186</v>
+        <v>1.827394353117421</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.09579895901597</v>
+        <v>71.25787390262315</v>
       </c>
       <c r="D22" t="n">
-        <v>2.069584263926985</v>
+        <v>1.839176680621148</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.36191820534528</v>
+        <v>70.49803069252135</v>
       </c>
       <c r="D23" t="n">
-        <v>1.700830208745612</v>
+        <v>1.848501607962919</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.09276481767081</v>
+        <v>69.05521241439568</v>
       </c>
       <c r="D24" t="n">
-        <v>1.811186340675393</v>
+        <v>1.966514678169279</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.18655358427944</v>
+        <v>68.23789875483523</v>
       </c>
       <c r="D25" t="n">
-        <v>2.089791844708893</v>
+        <v>1.878275408860391</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.19142678820693</v>
+        <v>67.13968670171595</v>
       </c>
       <c r="D26" t="n">
-        <v>1.963814345538056</v>
+        <v>1.931229398327712</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.21972500856354</v>
+        <v>65.99724527076837</v>
       </c>
       <c r="D27" t="n">
-        <v>1.957363858237864</v>
+        <v>1.769130590766263</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.26515351953024</v>
+        <v>65.18921212012154</v>
       </c>
       <c r="D28" t="n">
-        <v>1.756452743540597</v>
+        <v>1.69230674559124</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.08992836229936</v>
+        <v>64.02800490624558</v>
       </c>
       <c r="D29" t="n">
-        <v>1.922206374365461</v>
+        <v>1.988840795553351</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.93748116972132</v>
+        <v>62.92419198793734</v>
       </c>
       <c r="D30" t="n">
-        <v>1.941879948900257</v>
+        <v>1.801062797712284</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.95588272070423</v>
+        <v>62.0488320263114</v>
       </c>
       <c r="D31" t="n">
-        <v>1.783946938642474</v>
+        <v>1.871203369083298</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.86991640511098</v>
+        <v>60.60415753750248</v>
       </c>
       <c r="D32" t="n">
-        <v>1.731307368657451</v>
+        <v>1.888299672655024</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.55900282551082</v>
+        <v>59.87210071647896</v>
       </c>
       <c r="D33" t="n">
-        <v>1.832978448399684</v>
+        <v>1.547392123057711</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.10765665521617</v>
+        <v>58.45063183807451</v>
       </c>
       <c r="D34" t="n">
-        <v>2.029269694515879</v>
+        <v>1.894127964395181</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.63208609078184</v>
+        <v>57.64274438888268</v>
       </c>
       <c r="D35" t="n">
-        <v>1.680370890528207</v>
+        <v>1.966197006433543</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.77343054801368</v>
+        <v>56.59994424467916</v>
       </c>
       <c r="D36" t="n">
-        <v>1.868617819934154</v>
+        <v>1.7563729537305</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.75319911261024</v>
+        <v>55.67562647571373</v>
       </c>
       <c r="D37" t="n">
-        <v>1.979319110489719</v>
+        <v>1.908733009333633</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.71734677211079</v>
+        <v>54.80482364700499</v>
       </c>
       <c r="D38" t="n">
-        <v>2.173736619762474</v>
+        <v>1.76332071531383</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.74806204648268</v>
+        <v>53.4066301019866</v>
       </c>
       <c r="D39" t="n">
-        <v>1.908341398762239</v>
+        <v>1.858015577933885</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.37088653860402</v>
+        <v>52.85739168998135</v>
       </c>
       <c r="D40" t="n">
-        <v>1.899832414131718</v>
+        <v>1.792946536542348</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.67584209164897</v>
+        <v>51.5312868470208</v>
       </c>
       <c r="D41" t="n">
-        <v>1.706539155266172</v>
+        <v>1.569945567204257</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.68375267003545</v>
+        <v>50.54015399847517</v>
       </c>
       <c r="D42" t="n">
-        <v>1.98086559736178</v>
+        <v>2.006187797986243</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.5057882529199</v>
+        <v>49.75084737822252</v>
       </c>
       <c r="D43" t="n">
-        <v>1.74760582878113</v>
+        <v>1.7747162383555</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12961157254501</v>
+        <v>48.21804494677534</v>
       </c>
       <c r="D44" t="n">
-        <v>2.027422254231013</v>
+        <v>1.577262379686955</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.47994535978608</v>
+        <v>47.47754792398528</v>
       </c>
       <c r="D45" t="n">
-        <v>1.832678290515525</v>
+        <v>1.642234670788477</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.13556907624538</v>
+        <v>46.63376668349098</v>
       </c>
       <c r="D46" t="n">
-        <v>1.970931147839419</v>
+        <v>2.137187452577962</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.53232879995027</v>
+        <v>45.42791030794547</v>
       </c>
       <c r="D47" t="n">
-        <v>1.968055952252936</v>
+        <v>1.701662377789506</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.36117427013703</v>
+        <v>44.20365950250331</v>
       </c>
       <c r="D48" t="n">
-        <v>1.980856105715443</v>
+        <v>1.872240671171128</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.13849462496447</v>
+        <v>42.80499110103183</v>
       </c>
       <c r="D49" t="n">
-        <v>1.930500051978858</v>
+        <v>1.778471639869753</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.12837325162565</v>
+        <v>41.84557997081943</v>
       </c>
       <c r="D50" t="n">
-        <v>1.753595575678894</v>
+        <v>1.853881717073036</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.30051223871108</v>
+        <v>41.27435256865848</v>
       </c>
       <c r="D51" t="n">
-        <v>1.974098695037328</v>
+        <v>1.99359642447052</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.18015072467607</v>
+        <v>40.02882281757379</v>
       </c>
       <c r="D52" t="n">
-        <v>1.899455656238101</v>
+        <v>2.089962757229386</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.12998857339384</v>
+        <v>38.94643647674303</v>
       </c>
       <c r="D53" t="n">
-        <v>1.799898942402187</v>
+        <v>1.908493000875046</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.38747502784396</v>
+        <v>38.56069867512659</v>
       </c>
       <c r="D54" t="n">
-        <v>1.935190152124943</v>
+        <v>1.920871926540964</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.13650073575118</v>
+        <v>37.1658201732152</v>
       </c>
       <c r="D55" t="n">
-        <v>1.805255746466201</v>
+        <v>1.7625093608105</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.29060029430572</v>
+        <v>36.08709674030692</v>
       </c>
       <c r="D56" t="n">
-        <v>1.678922921223815</v>
+        <v>1.911744427845588</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.63917485770926</v>
+        <v>34.8711547860194</v>
       </c>
       <c r="D57" t="n">
-        <v>1.700729770291704</v>
+        <v>1.7422685391819</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.98194616013425</v>
+        <v>34.09469731797211</v>
       </c>
       <c r="D58" t="n">
-        <v>2.104307273412782</v>
+        <v>1.825706833173104</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.24704327127274</v>
+        <v>32.88655035532815</v>
       </c>
       <c r="D59" t="n">
-        <v>1.740819401498388</v>
+        <v>1.790924985414275</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.04332486420493</v>
+        <v>32.00509138760138</v>
       </c>
       <c r="D60" t="n">
-        <v>1.807761101958672</v>
+        <v>1.690753776760799</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.05278576474689</v>
+        <v>31.07935810228052</v>
       </c>
       <c r="D61" t="n">
-        <v>1.789262815126074</v>
+        <v>1.775629558806124</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.06037622384052</v>
+        <v>30.11115385864482</v>
       </c>
       <c r="D62" t="n">
-        <v>1.954412243383695</v>
+        <v>1.892326891100608</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.8586266686806</v>
+        <v>29.18116704788108</v>
       </c>
       <c r="D63" t="n">
-        <v>1.838152752717101</v>
+        <v>1.617895797907014</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.10910133851992</v>
+        <v>28.17597385644506</v>
       </c>
       <c r="D64" t="n">
-        <v>1.9352428207278</v>
+        <v>1.79091718464926</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.12970641143776</v>
+        <v>26.8190563446278</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95327412532679</v>
+        <v>1.789730551632839</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.17046172339797</v>
+        <v>25.93284810864638</v>
       </c>
       <c r="D66" t="n">
-        <v>1.733013613752327</v>
+        <v>1.929971163132281</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.70585568049437</v>
+        <v>24.86846386192969</v>
       </c>
       <c r="D67" t="n">
-        <v>1.832797661000981</v>
+        <v>1.746488714541833</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.90622358073136</v>
+        <v>24.01018956453188</v>
       </c>
       <c r="D68" t="n">
-        <v>1.914544515437788</v>
+        <v>1.963282150242825</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.08733850474458</v>
+        <v>22.86297755761507</v>
       </c>
       <c r="D69" t="n">
-        <v>1.802297580976348</v>
+        <v>1.868561462973938</v>
       </c>
     </row>
   </sheetData>
